--- a/LoraProjectItems.xlsx
+++ b/LoraProjectItems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dowloads-D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\alarm_system_by_lora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FCA2A-2D36-4776-B4B8-D071979EC7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77182688-7413-400A-B7AC-05174A433149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4764A902-F6DF-4F5B-B227-4378B90B2F4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4764A902-F6DF-4F5B-B227-4378B90B2F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Arduino nano</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Lora Ra-02 AI-Thinker</t>
+  </si>
+  <si>
+    <t>DỰ KIẾN</t>
+  </si>
+  <si>
+    <t>THỰC TẾ</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -193,11 +199,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -217,6 +232,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,22 +550,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5E2706-ECC6-4F3B-B726-0B0A1BAE7A44}">
-  <dimension ref="B3:F19"/>
+  <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -563,8 +602,23 @@
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -581,8 +635,20 @@
         <f>E4*D4</f>
         <v>420000</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <f>K4*J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -599,8 +665,24 @@
         <f t="shared" ref="F5:F17" si="0">E5*D5</f>
         <v>405000</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>133000</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L17" si="1">K5*J5</f>
+        <v>266000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -617,8 +699,20 @@
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -635,8 +729,20 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -653,8 +759,20 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -671,8 +789,20 @@
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -689,8 +819,20 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -707,8 +849,20 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -725,8 +879,20 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="6">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -743,8 +909,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="6">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -761,8 +939,20 @@
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="6">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -779,8 +969,20 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -797,8 +999,20 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="6">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -815,8 +1029,20 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="6">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -830,8 +1056,21 @@
         <f>SUM(F4:F17)</f>
         <v>2006000</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5">
+        <f>SUM(J4:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4">
+        <f>SUM(L4:L17)</f>
+        <v>266000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
@@ -842,10 +1081,23 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7">
+        <f>5000000-L18</f>
+        <v>4734000</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
